--- a/data/trans_bre/P23_3_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_3_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,53</t>
+          <t>11,95</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,59</t>
+          <t>-14,63</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,98</t>
+          <t>7,17</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>85,37%</t>
+          <t>19,08</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-13,55%</t>
+          <t>251,36%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>29,36%</t>
+          <t>-46,78%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>81,28%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>150,21%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 18,04</t>
+          <t>-0,09; 27,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-27,76; 11,02</t>
+          <t>-55,41; 10,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 12,07</t>
+          <t>-6,17; 20,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,99; 306,92</t>
+          <t>-0,41; 38,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-73,17; 122,72</t>
+          <t>-41,11; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-47,22; 205,39</t>
+          <t>-96,11; 121,04</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-46,57; 562,35</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-4,57; 780,8</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,32</t>
+          <t>2,91</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,74</t>
+          <t>8,55</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>-2,24</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,45%</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>36,51%</t>
+          <t>14,43%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-8,44%</t>
+          <t>51,39%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-13,35%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>15,0%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 9,5</t>
+          <t>-5,96; 12,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 12,25</t>
+          <t>-0,69; 17,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-9,8; 5,06</t>
+          <t>-10,72; 5,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-19,5; 62,07</t>
+          <t>-6,63; 9,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 109,38</t>
+          <t>-24,32; 84,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-43,84; 44,57</t>
+          <t>-5,7; 128,52</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-48,05; 47,4</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-32,88; 92,77</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,02</t>
+          <t>6,08</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,56</t>
+          <t>4,16</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,98</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>22,43%</t>
+          <t>6,9</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>36,39%</t>
+          <t>40,62%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>32,36%</t>
+          <t>34,94%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>46,12%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>47,27%</t>
         </is>
       </c>
     </row>
@@ -802,39 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 11,23</t>
+          <t>-3,46; 14,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 11,33</t>
+          <t>-5,04; 11,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 10,86</t>
+          <t>-3,21; 13,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-19,86; 80,57</t>
+          <t>-2,65; 15,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-18,78; 125,45</t>
+          <t>-17,61; 143,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,8; 119,42</t>
+          <t>-30,98; 151,3</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-20,56; 169,63</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-17,34; 151,92</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,93</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22,98%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>25,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 8,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 8,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 5,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 59,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 70,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-26,38; 45,75</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5,37</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3,51</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,98</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6,78</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>33,55%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>20,93%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>14,2%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>46,21%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0,06; 11,4</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-5,33; 9,17</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-3,96; 7,41</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0,82; 13,27</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-0,15; 89,95</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-25,9; 71,15</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-22,72; 66,42</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>3,48; 108,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P23_3_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_3_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,197 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>11,95</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-14,63</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>7,17</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>19,08</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>251,36%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-46,78%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>81,28%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>150,21%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>12.69691350391804</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-10.99459633045515</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>6.389462458232781</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>20.47214560500675</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>3.152285651350483</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.3943510442032065</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.7544009474236392</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.55101487272003</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-0,09; 27,44</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-55,41; 10,97</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-6,17; 20,56</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-0,41; 38,95</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-41,11; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-96,11; 121,04</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-46,57; 562,35</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-4,57; 780,8</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>1.461178807234635</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-51.40049136513556</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-6.069231971847679</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.396428018488244</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.2308341612707773</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.9503651494563032</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.4775379909844151</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.0430570028232599</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>27.658654641676</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>11.62439368521175</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>19.40444501925957</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>40.55946415196826</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="n">
+        <v>1.341085110027856</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>5.235009580267691</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>8.302950335799572</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>2,91</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>8,55</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-2,24</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>2,31</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>14,43%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>51,39%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-13,35%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>15,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-5,96; 12,17</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-0,69; 17,25</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-10,72; 5,99</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-6,63; 9,89</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-24,32; 84,61</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-5,7; 128,52</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-48,05; 47,4</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-32,88; 92,77</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>5.764457446990762</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>8.657906656514086</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-1.153576791085084</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>2.714129659308542</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.2917137217984742</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.5062173182119069</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.06962020598408231</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.1802111979000774</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>6,08</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>4,16</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>5,48</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>6,9</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>40,62%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>34,94%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>46,12%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>47,27%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-3.672772006722202</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-1.129315371930455</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-9.97557901076725</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-6.183296682666615</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.1537160180731281</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.06280647564873618</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.4470435437049362</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.3254446359581563</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-3,46; 14,89</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-5,04; 11,89</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-3,21; 13,2</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-2,65; 15,4</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-17,61; 143,83</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-30,98; 151,3</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-20,56; 169,63</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-17,34; 151,92</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>16.11381016571501</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>17.60949068631145</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>7.015565078926124</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>10.2194970484916</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>1.072273217505367</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1.320795576121626</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.5711437556454828</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.9709905030783705</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +825,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>4.725934832688091</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>4.337094402287874</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>4.449420331041062</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>6.756767730759591</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.2932282281796215</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.3584912625005468</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.3475495577775796</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.457747605401522</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-6.254179793229906</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-5.226279526612813</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-5.194319748599289</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-3.582202864781709</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.2871368994494744</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.3093861565777879</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.2997728793690954</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.1980914989782027</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>14.1802673717535</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>12.35615534218045</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>12.12714826360791</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>15.49505026203485</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>1.297954482214528</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>1.577957007644581</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>1.489127289667021</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.503237757339742</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>5,37</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>3,51</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,98</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>6,78</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>33,55%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>20,93%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>14,2%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>46,21%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>0,06; 11,4</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-5,33; 9,17</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-3,96; 7,41</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>0,82; 13,27</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-0,15; 89,95</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-25,9; 71,15</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-22,72; 66,42</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>3,48; 108,61</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>6.25072609660346</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>4.199249613572903</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.917517080966078</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>7.263817652778354</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.3860848296714783</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.2533042711709071</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.1357597961628385</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.4955663836641875</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.6484044252114349</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-3.709748331493031</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-4.151401040463265</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>1.236008563576308</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.02280338304016725</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.1714501509754248</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.2374673386717373</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.06828853701566309</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>12.5930417890665</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>9.994899087884818</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>7.504516692872275</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>13.66967237550038</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.9556379800759771</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.7890131544590546</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.6940001771287441</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.179239472531916</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
